--- a/data/trans_orig/P2A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>213709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192662</v>
+        <v>192440</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>237037</v>
+        <v>237223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4510762545310983</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4066523723711005</v>
+        <v>0.4061830033674348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5003142640388581</v>
+        <v>0.5007061343477359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -765,19 +765,19 @@
         <v>157075</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139280</v>
+        <v>138513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173630</v>
+        <v>175443</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5121787728073987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4541526241205994</v>
+        <v>0.4516543287314851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5661591191296205</v>
+        <v>0.5720724171030347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>361</v>
@@ -786,19 +786,19 @@
         <v>370785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>342933</v>
+        <v>344506</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>400080</v>
+        <v>399454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4750864793919473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4394002951515129</v>
+        <v>0.4414158157448466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5126229042311108</v>
+        <v>0.5118203489360925</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>260067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>236739</v>
+        <v>236553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281114</v>
+        <v>281336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5489237454689017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4996857359611418</v>
+        <v>0.4992938656522639</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5933476276288995</v>
+        <v>0.5938169966325652</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -836,19 +836,19 @@
         <v>149605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133050</v>
+        <v>131237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167400</v>
+        <v>168167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4878212271926013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4338408808703795</v>
+        <v>0.4279275828969653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5458473758794006</v>
+        <v>0.5483456712685151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>392</v>
@@ -857,19 +857,19 @@
         <v>409672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>380377</v>
+        <v>381003</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437524</v>
+        <v>435951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5249135206080527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4873770957688894</v>
+        <v>0.4881796510639083</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5605997048484872</v>
+        <v>0.5585841842551535</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>174121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153666</v>
+        <v>153923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193268</v>
+        <v>194085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4745294056563963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.418783220168771</v>
+        <v>0.4194851575462972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5267114791900204</v>
+        <v>0.5289379721766293</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -982,19 +982,19 @@
         <v>206170</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186604</v>
+        <v>188310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225916</v>
+        <v>226105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5544208051573858</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5018052202807157</v>
+        <v>0.5063926493499397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6075210532513184</v>
+        <v>0.6080305590714491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>372</v>
@@ -1003,19 +1003,19 @@
         <v>380291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>349693</v>
+        <v>355021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>404989</v>
+        <v>408524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5147417019852953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4733263807564773</v>
+        <v>0.4805375411227342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5481727329322759</v>
+        <v>0.552957020913776</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>192813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173666</v>
+        <v>172849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213268</v>
+        <v>213011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5254705943436038</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4732885208099795</v>
+        <v>0.4710620278233706</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.581216779831229</v>
+        <v>0.5805148424537028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>163</v>
@@ -1053,19 +1053,19 @@
         <v>165695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145949</v>
+        <v>145760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>185261</v>
+        <v>183555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4455791948426142</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3924789467486817</v>
+        <v>0.3919694409285508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4981947797192843</v>
+        <v>0.4936073506500603</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -1074,19 +1074,19 @@
         <v>358508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>333810</v>
+        <v>330275</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>389106</v>
+        <v>383778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4852582980147047</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4518272670677244</v>
+        <v>0.447042979086224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5266736192435229</v>
+        <v>0.5194624588772657</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>264012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>239239</v>
+        <v>240512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>287944</v>
+        <v>286390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4867578724711433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4410844828913777</v>
+        <v>0.4434299814131786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5308815432828459</v>
+        <v>0.5280164052417912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -1199,19 +1199,19 @@
         <v>104191</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91813</v>
+        <v>92716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116751</v>
+        <v>117990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6209890452988583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5472131390390673</v>
+        <v>0.5526004434023873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6958466577670267</v>
+        <v>0.7032312709890397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1220,19 +1220,19 @@
         <v>368203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>340465</v>
+        <v>340723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>393412</v>
+        <v>397787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5184707446898024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4794127858941523</v>
+        <v>0.4797761037896714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5539678530532276</v>
+        <v>0.560127817198244</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>278377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254445</v>
+        <v>255999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303150</v>
+        <v>301877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5132421275288567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4691184567171541</v>
+        <v>0.4719835947582089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5589155171086216</v>
+        <v>0.5565700185868213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1270,19 +1270,19 @@
         <v>63591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51031</v>
+        <v>49792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75969</v>
+        <v>75066</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3790109547011417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3041533422329732</v>
+        <v>0.29676872901096</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4527868609609325</v>
+        <v>0.4473995565976126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -1291,19 +1291,19 @@
         <v>341968</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>316759</v>
+        <v>312384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>369706</v>
+        <v>369448</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4815292553101977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4460321469467723</v>
+        <v>0.439872182801756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5205872141058477</v>
+        <v>0.5202238962103286</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>656260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>624252</v>
+        <v>621566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>696680</v>
+        <v>692786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5299542618973843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.504106359739075</v>
+        <v>0.5019374118742044</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5625944064221021</v>
+        <v>0.5594503372466691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>437</v>
@@ -1416,19 +1416,19 @@
         <v>444700</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>417817</v>
+        <v>416587</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>468257</v>
+        <v>469439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6225801006493745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5849441237670739</v>
+        <v>0.5832223818759281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6555603000251939</v>
+        <v>0.6572151773901542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1099</v>
@@ -1437,19 +1437,19 @@
         <v>1100961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1057369</v>
+        <v>1060010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1144886</v>
+        <v>1143152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5638376016891548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5415128967516741</v>
+        <v>0.5428653534211086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5863330025101829</v>
+        <v>0.5854449991500962</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>582074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541654</v>
+        <v>545548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614082</v>
+        <v>616768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4700457381026157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4374055935778979</v>
+        <v>0.4405496627533309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4958936402609251</v>
+        <v>0.4980625881257957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>257</v>
@@ -1487,19 +1487,19 @@
         <v>269585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246028</v>
+        <v>244846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296468</v>
+        <v>297698</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3774198993506255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3444396999748062</v>
+        <v>0.3427848226098459</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4150558762329261</v>
+        <v>0.416777618124072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>819</v>
@@ -1508,19 +1508,19 @@
         <v>851659</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>807734</v>
+        <v>809468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>895251</v>
+        <v>892610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4361623983108452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.413666997489817</v>
+        <v>0.4145550008499042</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4584871032483258</v>
+        <v>0.4571346465788914</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>185278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164320</v>
+        <v>166561</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203228</v>
+        <v>204519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5285280560943288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4687420944932599</v>
+        <v>0.4751340903031013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.57973115458229</v>
+        <v>0.583416248393535</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>355</v>
@@ -1633,19 +1633,19 @@
         <v>371009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>347107</v>
+        <v>347413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>392406</v>
+        <v>394013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6523220977337203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.61029609247456</v>
+        <v>0.6108343357898527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6899415930243346</v>
+        <v>0.6927674999347864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>537</v>
@@ -1654,19 +1654,19 @@
         <v>556288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>524878</v>
+        <v>523676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>585117</v>
+        <v>585766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6051162693943517</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.57094976171096</v>
+        <v>0.5696426076200499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6364757559082691</v>
+        <v>0.6371824286895321</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>165277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147327</v>
+        <v>146036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186235</v>
+        <v>183994</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4714719439056711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4202688454177097</v>
+        <v>0.4165837516064649</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5312579055067399</v>
+        <v>0.5248659096968985</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>197743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176346</v>
+        <v>174739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221645</v>
+        <v>221339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3476779022662797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3100584069756656</v>
+        <v>0.3072325000652136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.38970390752544</v>
+        <v>0.3891656642101476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>342</v>
@@ -1725,19 +1725,19 @@
         <v>363019</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>334190</v>
+        <v>333541</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394429</v>
+        <v>395631</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3948837306056482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.363524244091731</v>
+        <v>0.3628175713104678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.42905023828904</v>
+        <v>0.4303573923799501</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>81559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67417</v>
+        <v>67165</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97892</v>
+        <v>95481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2735031022795228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2260801506909279</v>
+        <v>0.2252324853145655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3282763658054984</v>
+        <v>0.3201902386489841</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>860</v>
@@ -1850,19 +1850,19 @@
         <v>873900</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>841762</v>
+        <v>841280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>904257</v>
+        <v>904039</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6998145388603656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6740782169989389</v>
+        <v>0.6736926919595626</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7241237556161406</v>
+        <v>0.7239490415767564</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>943</v>
@@ -1871,19 +1871,19 @@
         <v>955459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>919809</v>
+        <v>916505</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>996340</v>
+        <v>993880</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6176364131147759</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5945912890336181</v>
+        <v>0.5924553058889237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6440633558336186</v>
+        <v>0.6424726611032209</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>216642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200309</v>
+        <v>202720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230784</v>
+        <v>231036</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7264968977204771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6717236341945015</v>
+        <v>0.6798097613510159</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7739198493090721</v>
+        <v>0.7747675146854346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>378</v>
@@ -1921,19 +1921,19 @@
         <v>374860</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344503</v>
+        <v>344721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>406998</v>
+        <v>407480</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3001854611396344</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2758762443838594</v>
+        <v>0.2760509584232435</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3259217830010611</v>
+        <v>0.3263073080404372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>601</v>
@@ -1942,19 +1942,19 @@
         <v>591501</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>550620</v>
+        <v>553080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>627151</v>
+        <v>630455</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3823635868852241</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3559366441663808</v>
+        <v>0.3575273388967789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4054087109663816</v>
+        <v>0.407544694111076</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1574940</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1520263</v>
+        <v>1521182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1633797</v>
+        <v>1635546</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4816051120023826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4648851838362564</v>
+        <v>0.4651662630798902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4996029766367011</v>
+        <v>0.5001378362830602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2108</v>
@@ -2067,19 +2067,19 @@
         <v>2157045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2102758</v>
+        <v>2102173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2215218</v>
+        <v>2209536</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6385333800084231</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.62246318289109</v>
+        <v>0.6222899642134287</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6557538035896882</v>
+        <v>0.6540717679274141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3679</v>
@@ -2088,19 +2088,19 @@
         <v>3731985</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3647689</v>
+        <v>3648855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3808379</v>
+        <v>3812649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.561343095214506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5486638274787875</v>
+        <v>0.5488391901995657</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5728338682282754</v>
+        <v>0.5734760826141798</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1695250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1636393</v>
+        <v>1634644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1749927</v>
+        <v>1749008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5183948879976173</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5003970233632989</v>
+        <v>0.4998621637169396</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5351148161637436</v>
+        <v>0.5348337369201097</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1188</v>
@@ -2138,19 +2138,19 @@
         <v>1221079</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1162906</v>
+        <v>1168588</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1275366</v>
+        <v>1275951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.361466619991577</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3442461964103118</v>
+        <v>0.3459282320725859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.37753681710891</v>
+        <v>0.3777100357865714</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2824</v>
@@ -2159,19 +2159,19 @@
         <v>2916329</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2839935</v>
+        <v>2835665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3000625</v>
+        <v>2999459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.438656904785494</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4271661317717245</v>
+        <v>0.4265239173858199</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4513361725212125</v>
+        <v>0.4511608098004343</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>222711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>201384</v>
+        <v>199536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>243696</v>
+        <v>246520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5093898714917093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4606105227559513</v>
+        <v>0.4563835878198142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5573866001886132</v>
+        <v>0.5638475298157752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -2526,19 +2526,19 @@
         <v>168490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148878</v>
+        <v>150827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187069</v>
+        <v>185913</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5358167671492265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4734483290221441</v>
+        <v>0.4796476482935683</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.594900942838503</v>
+        <v>0.5912260041927985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>352</v>
@@ -2547,19 +2547,19 @@
         <v>391201</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364712</v>
+        <v>358584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423175</v>
+        <v>419479</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5204453940895116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4852060494750146</v>
+        <v>0.4770526215667862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5629828930515648</v>
+        <v>0.5580658934335102</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>214500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193515</v>
+        <v>190691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235827</v>
+        <v>237675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4906101285082907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4426133998113864</v>
+        <v>0.4361524701842248</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5393894772440477</v>
+        <v>0.5436164121801859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -2597,19 +2597,19 @@
         <v>145964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127385</v>
+        <v>128541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165576</v>
+        <v>163627</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4641832328507735</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.405099057161497</v>
+        <v>0.4087739958072015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5265516709778559</v>
+        <v>0.5203523517064317</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>335</v>
@@ -2618,19 +2618,19 @@
         <v>360464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>328490</v>
+        <v>332186</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>386953</v>
+        <v>393081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4795546059104884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4370171069484352</v>
+        <v>0.4419341065664898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5147939505249854</v>
+        <v>0.5229473784332138</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>225402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203689</v>
+        <v>203426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248065</v>
+        <v>247305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5382136002898271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4863672073768065</v>
+        <v>0.4857381041485538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5923283526077907</v>
+        <v>0.590511991452259</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>188</v>
@@ -2743,19 +2743,19 @@
         <v>211358</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194621</v>
+        <v>192783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>228973</v>
+        <v>230404</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6252990314075655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5757844842422649</v>
+        <v>0.5703464074430492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6774125488874517</v>
+        <v>0.6816463137268173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -2764,19 +2764,19 @@
         <v>436760</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>405205</v>
+        <v>411898</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>464580</v>
+        <v>467281</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5771083266260508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5354134262251398</v>
+        <v>0.5442563338800939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.613868060386728</v>
+        <v>0.6174370430220429</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>193395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>170732</v>
+        <v>171492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215108</v>
+        <v>215371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4617863997101729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4076716473922093</v>
+        <v>0.4094880085477411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5136327926231935</v>
+        <v>0.5142618958514462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -2814,19 +2814,19 @@
         <v>126653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109038</v>
+        <v>107607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143390</v>
+        <v>145228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3747009685924346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3225874511125481</v>
+        <v>0.3183536862731827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4242155157577349</v>
+        <v>0.4296535925569508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>290</v>
@@ -2835,19 +2835,19 @@
         <v>320048</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>292228</v>
+        <v>289527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>351603</v>
+        <v>344910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4228916733739492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.386131939613272</v>
+        <v>0.3825629569779574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4645865737748602</v>
+        <v>0.4557436661199065</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>371279</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>344547</v>
+        <v>347891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>396445</v>
+        <v>397638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5898786984375999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5474076365929639</v>
+        <v>0.5527206276476877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6298623665173886</v>
+        <v>0.6317576597363352</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -2960,19 +2960,19 @@
         <v>184458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167776</v>
+        <v>169622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198872</v>
+        <v>198886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7091024048321914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6449708522185692</v>
+        <v>0.6520694949876434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7645116786799231</v>
+        <v>0.7645671411402898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>514</v>
@@ -2981,19 +2981,19 @@
         <v>555737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>525228</v>
+        <v>525304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>586647</v>
+        <v>586518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6247432875757515</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5904463238210782</v>
+        <v>0.590531556781127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6594921339545208</v>
+        <v>0.6593466112094726</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>258136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232970</v>
+        <v>231777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284868</v>
+        <v>281524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4101213015624001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3701376334826115</v>
+        <v>0.3682423402636646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4525923634070363</v>
+        <v>0.4472793723523121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -3031,19 +3031,19 @@
         <v>75671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61257</v>
+        <v>61243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92353</v>
+        <v>90507</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2908975951678085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2354883213200771</v>
+        <v>0.2354328588597101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3550291477814309</v>
+        <v>0.3479305050123566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>321</v>
@@ -3052,19 +3052,19 @@
         <v>333807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302897</v>
+        <v>303026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>364316</v>
+        <v>364240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3752567124242486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3405078660454792</v>
+        <v>0.3406533887905273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4095536761789219</v>
+        <v>0.4094684432188727</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>680657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>645840</v>
+        <v>647491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>714261</v>
+        <v>716500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5872748574507944</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5572346011698243</v>
+        <v>0.5586588034168387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6162683528804852</v>
+        <v>0.6182008075892277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>462</v>
@@ -3177,19 +3177,19 @@
         <v>500114</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>467142</v>
+        <v>470243</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>526137</v>
+        <v>525277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6523309555069647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6093229929143271</v>
+        <v>0.6133676803309707</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6862744388695959</v>
+        <v>0.685152852612309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1102</v>
@@ -3198,19 +3198,19 @@
         <v>1180772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1140389</v>
+        <v>1138978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1223869</v>
+        <v>1227968</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6131753634694452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5922045396906686</v>
+        <v>0.5914717944093947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.635555876659132</v>
+        <v>0.6376843830991358</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>478352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>444748</v>
+        <v>442509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>513169</v>
+        <v>511518</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4127251425492056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.383731647119515</v>
+        <v>0.3817991924107725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4427653988301758</v>
+        <v>0.4413411965831614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -3248,19 +3248,19 @@
         <v>266543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240520</v>
+        <v>241380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299515</v>
+        <v>296414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3476690444930353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3137255611304042</v>
+        <v>0.3148471473876911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3906770070856729</v>
+        <v>0.3866323196690297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>692</v>
@@ -3269,19 +3269,19 @@
         <v>744895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>701798</v>
+        <v>697699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>785278</v>
+        <v>786689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3868246365305548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.364444123340868</v>
+        <v>0.3623156169008639</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4077954603093315</v>
+        <v>0.4085282055906052</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>300854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277457</v>
+        <v>278983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321398</v>
+        <v>323125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5892218492221017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.543398080165694</v>
+        <v>0.5463868391832477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6294572242210236</v>
+        <v>0.6328384266285635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>530</v>
@@ -3394,19 +3394,19 @@
         <v>571285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>545332</v>
+        <v>544106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>594630</v>
+        <v>593896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7501885288857472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7161080067699329</v>
+        <v>0.7144982787321937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7808438969203849</v>
+        <v>0.7798809182508858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>815</v>
@@ -3415,19 +3415,19 @@
         <v>872139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>835430</v>
+        <v>836884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>905525</v>
+        <v>904800</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6855805372132642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6567236056566851</v>
+        <v>0.6578669034480582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7118243550201269</v>
+        <v>0.7112549287792336</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>209742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189198</v>
+        <v>187471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>233139</v>
+        <v>231613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4107781507778983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3705427757789763</v>
+        <v>0.3671615733714365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4566019198343058</v>
+        <v>0.4536131608167523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -3465,19 +3465,19 @@
         <v>190237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166892</v>
+        <v>167626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216190</v>
+        <v>217416</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2498114711142529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2191561030796151</v>
+        <v>0.2201190817491142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2838919932300671</v>
+        <v>0.2855017212678062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>375</v>
@@ -3486,19 +3486,19 @@
         <v>399979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>366593</v>
+        <v>367318</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>436688</v>
+        <v>435234</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3144194627867358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2881756449798736</v>
+        <v>0.2887450712207664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3432763943433149</v>
+        <v>0.3421330965519417</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>102133</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85911</v>
+        <v>87388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118268</v>
+        <v>119524</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3826913857884285</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3219078353245888</v>
+        <v>0.3274423240078381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4431457470767494</v>
+        <v>0.4478544266579678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>766</v>
@@ -3611,19 +3611,19 @@
         <v>819897</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>791705</v>
+        <v>788039</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>848706</v>
+        <v>849642</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7390776400656437</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.713664935338318</v>
+        <v>0.7103600170412732</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7650471376794974</v>
+        <v>0.7658909320454779</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>865</v>
@@ -3632,19 +3632,19 @@
         <v>922030</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>884114</v>
+        <v>885538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>957424</v>
+        <v>956901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6699664957739707</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6424155782191963</v>
+        <v>0.6434505370295964</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6956848154496109</v>
+        <v>0.6953042837277598</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>164749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148614</v>
+        <v>147358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180971</v>
+        <v>179494</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6173086142115715</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5568542529232506</v>
+        <v>0.5521455733420324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6780921646754112</v>
+        <v>0.6725576759921619</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -3682,19 +3682,19 @@
         <v>289454</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260645</v>
+        <v>259709</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>317646</v>
+        <v>321312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2609223599343563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2349528623205027</v>
+        <v>0.2341090679545223</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2863350646616821</v>
+        <v>0.2896399829587269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -3703,19 +3703,19 @@
         <v>454203</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>418809</v>
+        <v>419332</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>492119</v>
+        <v>490695</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3300335042260292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.304315184550389</v>
+        <v>0.30469571627224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3575844217808037</v>
+        <v>0.3565494629704036</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1903036</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1839331</v>
+        <v>1837947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1957789</v>
+        <v>1966189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5561327565736979</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5375158542249091</v>
+        <v>0.5371114793626304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5721335339385485</v>
+        <v>0.5745883030166374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2267</v>
@@ -3828,19 +3828,19 @@
         <v>2455602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2400336</v>
+        <v>2396492</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2507832</v>
+        <v>2515002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6916945493241643</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6761270556893515</v>
+        <v>0.6750445018701888</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7064068011662402</v>
+        <v>0.7084263283881522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4038</v>
@@ -3849,19 +3849,19 @@
         <v>4358638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4276592</v>
+        <v>4280205</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4444298</v>
+        <v>4445724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.625160139495771</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6133922833215454</v>
+        <v>0.6139103953151156</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6374463432412086</v>
+        <v>0.6376508810471444</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1518874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1464121</v>
+        <v>1455721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1582579</v>
+        <v>1583963</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4438672434263021</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4278664660614515</v>
+        <v>0.4254116969833626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4624841457750909</v>
+        <v>0.4628885206373696</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1023</v>
@@ -3899,19 +3899,19 @@
         <v>1094523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1042293</v>
+        <v>1035123</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1149789</v>
+        <v>1153633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3083054506758358</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2935931988337598</v>
+        <v>0.2915736716118477</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3238729443106485</v>
+        <v>0.3249554981298112</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2457</v>
@@ -3920,19 +3920,19 @@
         <v>2613397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2527737</v>
+        <v>2526311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2695443</v>
+        <v>2691830</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.374839860504229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3625536567587913</v>
+        <v>0.3623491189528555</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3866077166784546</v>
+        <v>0.3860896046848843</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>197252</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176354</v>
+        <v>176529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219263</v>
+        <v>217670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4596960730972102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4109925716459238</v>
+        <v>0.4114003400489132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5109941128714767</v>
+        <v>0.5072807934126645</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -4287,19 +4287,19 @@
         <v>182034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162006</v>
+        <v>163977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199448</v>
+        <v>202896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5245118900813526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.466802770385835</v>
+        <v>0.4724800830406635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5746883125826852</v>
+        <v>0.5846226472172557</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>353</v>
@@ -4308,19 +4308,19 @@
         <v>379286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>350921</v>
+        <v>348778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408648</v>
+        <v>407347</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.488678533522297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4521319544437845</v>
+        <v>0.4493716810923027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5265084867096793</v>
+        <v>0.5248321712164538</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>231840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>209829</v>
+        <v>211422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252738</v>
+        <v>252563</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5403039269027898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4890058871285232</v>
+        <v>0.4927192065873356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5890074283540763</v>
+        <v>0.5885996599510868</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -4358,19 +4358,19 @@
         <v>165021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147607</v>
+        <v>144159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185049</v>
+        <v>183078</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4754881099186474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4253116874173152</v>
+        <v>0.4153773527827442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.533197229614165</v>
+        <v>0.5275199169593364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -4379,19 +4379,19 @@
         <v>396861</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>367499</v>
+        <v>368800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425226</v>
+        <v>427369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.511321466477703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4734915132903208</v>
+        <v>0.4751678287835463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5478680455562156</v>
+        <v>0.5506283189076975</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>186258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165680</v>
+        <v>167180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>206456</v>
+        <v>208029</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4937564316510098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4392045532804085</v>
+        <v>0.4431824665111446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5472985736356161</v>
+        <v>0.5514676916696147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>178</v>
@@ -4504,19 +4504,19 @@
         <v>190742</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169387</v>
+        <v>170987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>209290</v>
+        <v>210748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5123717979975398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4550074192253402</v>
+        <v>0.459304421973241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.562195076610139</v>
+        <v>0.5661107545560051</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>354</v>
@@ -4525,19 +4525,19 @@
         <v>377000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>350550</v>
+        <v>347109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>406899</v>
+        <v>407001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5030025968774589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4677115091741615</v>
+        <v>0.4631211605731118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.542893513012129</v>
+        <v>0.5430305147347793</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>190969</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>170771</v>
+        <v>169198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>211547</v>
+        <v>210047</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5062435683489902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4527014263643839</v>
+        <v>0.4485323083303853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5607954467195922</v>
+        <v>0.5568175334888553</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -4575,19 +4575,19 @@
         <v>181531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162983</v>
+        <v>161525</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>202886</v>
+        <v>201286</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4876282020024602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.437804923389861</v>
+        <v>0.4338892454439949</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5449925807746598</v>
+        <v>0.5406955780267589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>352</v>
@@ -4596,19 +4596,19 @@
         <v>372500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>342601</v>
+        <v>342499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>398950</v>
+        <v>402391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4969974031225411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.457106486987871</v>
+        <v>0.4569694852652207</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5322884908258383</v>
+        <v>0.5368788394268882</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>306172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>283666</v>
+        <v>282783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>328174</v>
+        <v>327388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.586633830096834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5435109464522989</v>
+        <v>0.5418193822028611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6287895217114813</v>
+        <v>0.6272837906075026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -4721,19 +4721,19 @@
         <v>110323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97503</v>
+        <v>97004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122748</v>
+        <v>122062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6641019634070934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5869314274012198</v>
+        <v>0.5839268652135824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7388990278035699</v>
+        <v>0.7347695002772079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -4742,19 +4742,19 @@
         <v>416494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393620</v>
+        <v>388207</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>444035</v>
+        <v>441355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6053381046990928</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5720928286054509</v>
+        <v>0.5642249071133036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6453654923258891</v>
+        <v>0.641471422019004</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>215742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193740</v>
+        <v>194526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>238248</v>
+        <v>239131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4133661699031659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3712104782885187</v>
+        <v>0.3727162093924974</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4564890535477011</v>
+        <v>0.4581806177971389</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -4792,19 +4792,19 @@
         <v>55800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43375</v>
+        <v>44061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68620</v>
+        <v>69119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3358980365929066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2611009721964302</v>
+        <v>0.265230499722792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4130685725987802</v>
+        <v>0.4160731347864177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>260</v>
@@ -4813,19 +4813,19 @@
         <v>271542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>244001</v>
+        <v>246681</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>294416</v>
+        <v>299829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3946618953009072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3546345076741107</v>
+        <v>0.358528577980996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4279071713945491</v>
+        <v>0.4357750928866959</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>631564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>598856</v>
+        <v>595294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>665553</v>
+        <v>665198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5493589218599058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5209080287850352</v>
+        <v>0.5178100681007507</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5789243010533248</v>
+        <v>0.5786152384755733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>440</v>
@@ -4938,19 +4938,19 @@
         <v>466908</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>435764</v>
+        <v>437011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>493891</v>
+        <v>493903</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5653489011576501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5276384482900416</v>
+        <v>0.5291488010195078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5980212660777391</v>
+        <v>0.5980357842026648</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1047</v>
@@ -4959,19 +4959,19 @@
         <v>1098472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1053232</v>
+        <v>1050699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1139055</v>
+        <v>1140198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5560436309257315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5331431228181225</v>
+        <v>0.5318609118880665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5765865768776801</v>
+        <v>0.5771652103913587</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>518074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484085</v>
+        <v>484440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>550782</v>
+        <v>554344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4506410781400942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4210756989466752</v>
+        <v>0.4213847615244268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4790919712149648</v>
+        <v>0.4821899318992492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>358</v>
@@ -5009,19 +5009,19 @@
         <v>358968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331985</v>
+        <v>331973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390112</v>
+        <v>388865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4346510988423498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4019787339222609</v>
+        <v>0.4019642157973352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4723615517099584</v>
+        <v>0.470851198980492</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>854</v>
@@ -5030,19 +5030,19 @@
         <v>877042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>836459</v>
+        <v>835316</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>922282</v>
+        <v>924815</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4439563690742686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4234134231223198</v>
+        <v>0.4228347896086407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4668568771818771</v>
+        <v>0.4681390881119333</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>351166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>325456</v>
+        <v>326681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>373845</v>
+        <v>376639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5657526551721546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.524332045264037</v>
+        <v>0.5263051078111376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.602289329834372</v>
+        <v>0.6067912943341638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>504</v>
@@ -5155,19 +5155,19 @@
         <v>541505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>516326</v>
+        <v>518277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>563915</v>
+        <v>563458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7335036396499403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6993971953724086</v>
+        <v>0.7020401454573868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7638597049718028</v>
+        <v>0.7632412075529744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>850</v>
@@ -5176,19 +5176,19 @@
         <v>892671</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>856585</v>
+        <v>855538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>927439</v>
+        <v>926420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.65688270306221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6303284260268011</v>
+        <v>0.629558181181197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6824676931347377</v>
+        <v>0.6817173869272507</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>269540</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246861</v>
+        <v>244067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295250</v>
+        <v>294025</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4342473448278454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3977106701656281</v>
+        <v>0.3932087056658362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4756679547359632</v>
+        <v>0.4736948921888624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -5226,19 +5226,19 @@
         <v>196739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174329</v>
+        <v>174786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221918</v>
+        <v>219967</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2664963603500597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2361402950281972</v>
+        <v>0.2367587924470254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3006028046275914</v>
+        <v>0.297959854542613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>446</v>
@@ -5247,19 +5247,19 @@
         <v>466279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>431511</v>
+        <v>432530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>502365</v>
+        <v>503412</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.34311729693779</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3175323068652622</v>
+        <v>0.3182826130727491</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3696715739731989</v>
+        <v>0.3704418188188029</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>100221</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84916</v>
+        <v>83899</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117911</v>
+        <v>115858</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3490272171051104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2957250374850073</v>
+        <v>0.2921817081830743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.410631320573098</v>
+        <v>0.4034812388756573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>668</v>
@@ -5372,19 +5372,19 @@
         <v>755958</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>721616</v>
+        <v>728028</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>784673</v>
+        <v>788121</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6986511980132206</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6669123502539286</v>
+        <v>0.6728380919827585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7251892194311467</v>
+        <v>0.7283756949811366</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>764</v>
@@ -5393,19 +5393,19 @@
         <v>856179</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>819619</v>
+        <v>817892</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>888148</v>
+        <v>893037</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6253273378831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5986249321326435</v>
+        <v>0.597363555837068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.648676545637349</v>
+        <v>0.6522469553339014</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>186924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169234</v>
+        <v>171287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202229</v>
+        <v>203246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6509727828948896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5893686794269021</v>
+        <v>0.5965187611243428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7042749625149927</v>
+        <v>0.7078182918169258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>324</v>
@@ -5443,19 +5443,19 @@
         <v>326067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>297352</v>
+        <v>293904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>360409</v>
+        <v>353997</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3013488019867793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2748107805688534</v>
+        <v>0.2716243050188635</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3330876497460714</v>
+        <v>0.3271619080172415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -5464,19 +5464,19 @@
         <v>512991</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481022</v>
+        <v>476133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549551</v>
+        <v>551278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3746726621168999</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3513234543626509</v>
+        <v>0.3477530446660985</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4013750678673565</v>
+        <v>0.4026364441629319</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1772634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1711428</v>
+        <v>1714495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1825793</v>
+        <v>1828902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5235615629023193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5054838956244921</v>
+        <v>0.5063897582643637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5392624259984934</v>
+        <v>0.5401806694107405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2057</v>
@@ -5589,19 +5589,19 @@
         <v>2247470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2185087</v>
+        <v>2194107</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2303784</v>
+        <v>2303785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.636389340201273</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6187250352855388</v>
+        <v>0.6212791787999141</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6523350950293025</v>
+        <v>0.652335503766921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3763</v>
@@ -5610,19 +5610,19 @@
         <v>4020104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3933245</v>
+        <v>3937408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4103044</v>
+        <v>4106921</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5811651182057807</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5686083464988545</v>
+        <v>0.5692101924579358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5931553278136795</v>
+        <v>0.5937158031392213</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1613088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1559929</v>
+        <v>1556820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1674294</v>
+        <v>1671227</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4764384370976807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4607375740015065</v>
+        <v>0.4598193305892595</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4945161043755079</v>
+        <v>0.4936102417356368</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1269</v>
@@ -5660,19 +5660,19 @@
         <v>1284126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1227812</v>
+        <v>1227811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1346509</v>
+        <v>1337489</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3636106597987269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3476649049706974</v>
+        <v>0.347664496233079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3812749647144609</v>
+        <v>0.3787208212000859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2787</v>
@@ -5681,19 +5681,19 @@
         <v>2897214</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2814274</v>
+        <v>2810397</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2984073</v>
+        <v>2979910</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4188348817942193</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4068446721863207</v>
+        <v>0.4062841968607786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4313916535011454</v>
+        <v>0.4307898075420643</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>207276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>185193</v>
+        <v>184649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232892</v>
+        <v>231433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3764425351223424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3363367767640318</v>
+        <v>0.3353493449051219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4229650621474897</v>
+        <v>0.4203158785213429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>275</v>
@@ -6048,19 +6048,19 @@
         <v>191858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>173864</v>
+        <v>174403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>211843</v>
+        <v>210414</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3928199052395886</v>
+        <v>0.3928199052395885</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3559796882463629</v>
+        <v>0.3570822725724793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4337394108349915</v>
+        <v>0.4308135197378485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>500</v>
@@ -6069,19 +6069,19 @@
         <v>399134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>367723</v>
+        <v>368796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>429130</v>
+        <v>432012</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3841409580499374</v>
+        <v>0.3841409580499373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3539106085486514</v>
+        <v>0.3549428359049072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4130107626884857</v>
+        <v>0.4157839959066673</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>343342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>317726</v>
+        <v>319185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>365425</v>
+        <v>365969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6235574648776577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5770349378525105</v>
+        <v>0.5796841214786571</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6636632232359685</v>
+        <v>0.6646506550948782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>411</v>
@@ -6119,19 +6119,19 @@
         <v>296553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276568</v>
+        <v>277997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314547</v>
+        <v>314008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6071800947604115</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5662605891650082</v>
+        <v>0.5691864802621515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6440203117536371</v>
+        <v>0.6429177274275206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>740</v>
@@ -6140,19 +6140,19 @@
         <v>639895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609899</v>
+        <v>607017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>671306</v>
+        <v>670233</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6158590419500628</v>
+        <v>0.6158590419500627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5869892373115143</v>
+        <v>0.5842160040933335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6460893914513484</v>
+        <v>0.6450571640950928</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>165889</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145877</v>
+        <v>142833</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188649</v>
+        <v>185598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3433055242057377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3018896084545923</v>
+        <v>0.2955908725477548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3904061931575558</v>
+        <v>0.3840920443280083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>228</v>
@@ -6265,19 +6265,19 @@
         <v>152168</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135663</v>
+        <v>135980</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168409</v>
+        <v>170125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3596141101251832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3206078316271594</v>
+        <v>0.3213577385152411</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3979957947133852</v>
+        <v>0.4020512634106765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>408</v>
@@ -6286,19 +6286,19 @@
         <v>318058</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>291370</v>
+        <v>290748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>344775</v>
+        <v>344167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3509193858655855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3214739967867781</v>
+        <v>0.3207887277255555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3803970062988289</v>
+        <v>0.3797263108514818</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>317323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294563</v>
+        <v>297614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>337335</v>
+        <v>340379</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6566944757942624</v>
+        <v>0.6566944757942623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6095938068424441</v>
+        <v>0.6159079556719915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6981103915454078</v>
+        <v>0.7044091274522452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -6336,19 +6336,19 @@
         <v>270975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>254734</v>
+        <v>253018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>287480</v>
+        <v>287163</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6403858898748166</v>
+        <v>0.6403858898748167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6020042052866149</v>
+        <v>0.5979487365893237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6793921683728406</v>
+        <v>0.6786422614847588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -6357,19 +6357,19 @@
         <v>588297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>561580</v>
+        <v>562188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>614985</v>
+        <v>615607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6490806141344145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.619602993701171</v>
+        <v>0.6202736891485179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.678526003213222</v>
+        <v>0.6792112722744443</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>186247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165341</v>
+        <v>164403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>209045</v>
+        <v>207242</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3949165569232771</v>
+        <v>0.394916556923277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3505868913918696</v>
+        <v>0.3485971055794356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4432571260584875</v>
+        <v>0.4394335193865594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -6482,19 +6482,19 @@
         <v>94440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83379</v>
+        <v>83484</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106406</v>
+        <v>106196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5036866589842368</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4446974427120471</v>
+        <v>0.445252909779257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5675071517984253</v>
+        <v>0.566385157935249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -6503,19 +6503,19 @@
         <v>280687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>256642</v>
+        <v>256225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304349</v>
+        <v>305216</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4258584782451986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3893777894537785</v>
+        <v>0.3887445215111147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4617588282161357</v>
+        <v>0.463073785900708</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>285365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>262567</v>
+        <v>264370</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306271</v>
+        <v>307209</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.605083443076723</v>
+        <v>0.6050834430767229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5567428739415127</v>
+        <v>0.5605664806134405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6494131086081303</v>
+        <v>0.6514028944205642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -6553,19 +6553,19 @@
         <v>93057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81091</v>
+        <v>81301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>104118</v>
+        <v>104013</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4963133410157631</v>
+        <v>0.4963133410157632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4324928482015747</v>
+        <v>0.433614842064751</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5553025572879527</v>
+        <v>0.5547470902207431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>408</v>
@@ -6574,19 +6574,19 @@
         <v>378422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>354760</v>
+        <v>353893</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>402467</v>
+        <v>402884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5741415217548015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5382411717838641</v>
+        <v>0.5369262140992922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6106222105462216</v>
+        <v>0.6112554784888854</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>485299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>452494</v>
+        <v>447563</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>523837</v>
+        <v>518292</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4287684810004518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3997850978047764</v>
+        <v>0.3954282013020835</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4628174039602972</v>
+        <v>0.4579182457412586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>564</v>
@@ -6699,19 +6699,19 @@
         <v>365991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>343289</v>
+        <v>342375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>392598</v>
+        <v>392484</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4249722351285167</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3986120407071354</v>
+        <v>0.3975502551485577</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4558675135703459</v>
+        <v>0.4557351601096435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1106</v>
@@ -6720,19 +6720,19 @@
         <v>851289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>809192</v>
+        <v>809221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>893671</v>
+        <v>895148</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4271280989727681</v>
+        <v>0.4271280989727682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4060060301966218</v>
+        <v>0.4060203853773757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4483926101768483</v>
+        <v>0.4491337173735082</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>646544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>608006</v>
+        <v>613551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>679349</v>
+        <v>684280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5712315189995482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5371825960397026</v>
+        <v>0.5420817542587415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6002149021952239</v>
+        <v>0.6045717986979164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>666</v>
@@ -6770,19 +6770,19 @@
         <v>495220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468613</v>
+        <v>468727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>517922</v>
+        <v>518836</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5750277648714833</v>
+        <v>0.5750277648714834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5441324864296541</v>
+        <v>0.544264839890356</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6013879592928646</v>
+        <v>0.6024497448514421</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1242</v>
@@ -6791,19 +6791,19 @@
         <v>1141765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1099383</v>
+        <v>1097906</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1183862</v>
+        <v>1183833</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5728719010272317</v>
+        <v>0.5728719010272318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5516073898231514</v>
+        <v>0.5508662826264917</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5939939698033782</v>
+        <v>0.5939796146226247</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>249539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>224849</v>
+        <v>223511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275534</v>
+        <v>276501</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4393574694479021</v>
+        <v>0.4393574694479019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.395886183310791</v>
+        <v>0.3935293956841178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4851264557900129</v>
+        <v>0.486828082001044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>743</v>
@@ -6916,19 +6916,19 @@
         <v>441450</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>415219</v>
+        <v>417913</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>464191</v>
+        <v>470891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5313227585091895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4997519713030208</v>
+        <v>0.502994879346906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5586938667399864</v>
+        <v>0.5667577405569623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1008</v>
@@ -6937,19 +6937,19 @@
         <v>690989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>650010</v>
+        <v>654439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>723293</v>
+        <v>725161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4939818751024771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4646867959639317</v>
+        <v>0.4678528707043069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5170762113476337</v>
+        <v>0.5184116576636539</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>318425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292430</v>
+        <v>291463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>343115</v>
+        <v>344453</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.560642530552098</v>
+        <v>0.5606425305520979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.514873544209987</v>
+        <v>0.5131719179989558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.604113816689209</v>
+        <v>0.6064706043158821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>547</v>
@@ -6987,19 +6987,19 @@
         <v>389400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>366659</v>
+        <v>359959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>415631</v>
+        <v>412937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4686772414908105</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4413061332600137</v>
+        <v>0.4332422594430373</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5002480286969793</v>
+        <v>0.4970051206530939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>829</v>
@@ -7008,19 +7008,19 @@
         <v>707825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>675521</v>
+        <v>673653</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>748804</v>
+        <v>744375</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.506018124897523</v>
+        <v>0.5060181248975228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4829237886523664</v>
+        <v>0.481588342336346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5353132040360683</v>
+        <v>0.5321471292956931</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>59841</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41766</v>
+        <v>41425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81764</v>
+        <v>82752</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2522527176220438</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1760578417597223</v>
+        <v>0.1746206868660364</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3446640036717541</v>
+        <v>0.3488284275099818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>683</v>
@@ -7133,19 +7133,19 @@
         <v>437357</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>409364</v>
+        <v>409600</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>464928</v>
+        <v>463998</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5180234109996514</v>
+        <v>0.5180234109996515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4848667717752956</v>
+        <v>0.4851466623695737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5506789221734205</v>
+        <v>0.5495773820943528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>717</v>
@@ -7154,19 +7154,19 @@
         <v>497199</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>461974</v>
+        <v>460124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>532814</v>
+        <v>536225</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4597269026301752</v>
+        <v>0.4597269026301753</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4271572148092471</v>
+        <v>0.4254466523076346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4926578235791413</v>
+        <v>0.4958122699267423</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>177387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155464</v>
+        <v>154476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195462</v>
+        <v>195803</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7477472823779562</v>
+        <v>0.7477472823779561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6553359963282457</v>
+        <v>0.6511715724900182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8239421582402776</v>
+        <v>0.8253793131339637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>476</v>
@@ -7204,19 +7204,19 @@
         <v>406924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>379353</v>
+        <v>380283</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>434917</v>
+        <v>434681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4819765890003485</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4493210778265795</v>
+        <v>0.4504226179056471</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5151332282247046</v>
+        <v>0.5148533376304264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>554</v>
@@ -7225,19 +7225,19 @@
         <v>584310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>548695</v>
+        <v>545284</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619535</v>
+        <v>621385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5402730973698248</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5073421764208585</v>
+        <v>0.5041877300732578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5728427851907527</v>
+        <v>0.5745533476923653</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1354092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1292605</v>
+        <v>1289072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1412277</v>
+        <v>1414867</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3933481693773283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3754869555462185</v>
+        <v>0.3744608053477478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4102503980477367</v>
+        <v>0.4110026608919897</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2648</v>
@@ -7350,19 +7350,19 @@
         <v>1683263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1634333</v>
+        <v>1623621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1733650</v>
+        <v>1735939</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4630209503334224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4495615563325325</v>
+        <v>0.4466149386082577</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4768810123377576</v>
+        <v>0.4775107390752518</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4108</v>
@@ -7371,19 +7371,19 @@
         <v>3037355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2953495</v>
+        <v>2957280</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3120662</v>
+        <v>3120402</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4291340742052839</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4172858464532287</v>
+        <v>0.4178207285087273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4409041534568925</v>
+        <v>0.440867443445728</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2088384</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2030199</v>
+        <v>2027609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2149871</v>
+        <v>2153404</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6066518306226718</v>
+        <v>0.6066518306226719</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5897496019522632</v>
+        <v>0.5889973391080104</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6245130444537815</v>
+        <v>0.6255391946522524</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2596</v>
@@ -7421,19 +7421,19 @@
         <v>1952130</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1901743</v>
+        <v>1899454</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2001060</v>
+        <v>2011772</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5369790496665777</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5231189876622424</v>
+        <v>0.5224892609247482</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5504384436674676</v>
+        <v>0.5533850613917422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4436</v>
@@ -7442,19 +7442,19 @@
         <v>4040514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3957207</v>
+        <v>3957467</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4124374</v>
+        <v>4120589</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.570865925794716</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5590958465431077</v>
+        <v>0.5591325565542722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5827141535467717</v>
+        <v>0.5821792714912729</v>
       </c>
     </row>
     <row r="24">
